--- a/biology/Botanique/Sciadopitys_verticillata/Sciadopitys_verticillata.xlsx
+++ b/biology/Botanique/Sciadopitys_verticillata/Sciadopitys_verticillata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sciadopitys verticillata, aussi appelée Pin parasol du Japon, est une espèce relique d'arbres conifères, de l'ordre des Pinales, famille des Sciadopityaceae.
 Difficile à situer dans la classification, les particularités morphologiques de cette espèce attestent d'une évolution très particulière et énigmatique.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a un feuillage persistant et atteint 20 m.
 Les rameaux et l'insertion des feuilles sont très particuliers.
@@ -550,7 +564,9 @@
           <t>Répartition et habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, il pousse dans des forêts humides au Japon, mais des formes fossiles de Sciadopitys ont été trouvées depuis le Jurassique supérieur. Ce genre semble avoir une origine européenne. Au Crétacé, il vivait dans de nombreuses régions de l'hémisphère Nord tempéré. Sciadopitys cretacea, par exemple, est une espèce européenne disparue, proche de l'espèce actuelle.
 Découvert en 1775 par Carl Thunberg il a été introduit en Europe en 1861.
@@ -583,7 +599,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Taxus verticillata Thunb.</t>
         </is>
